--- a/ShootLog.xlsx
+++ b/ShootLog.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theol\Documents\7842F-Local-Vex-Code\7842F-Competition-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A28391-187D-4A41-BD04-EE580107F182}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89B1714-893C-47A1-B25A-40000F968F27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2520" windowWidth="15375" windowHeight="7875" xr2:uid="{2E3FA7E8-4F5F-4379-B140-BBAB140CC1EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2E3FA7E8-4F5F-4379-B140-BBAB140CC1EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="High" sheetId="1" r:id="rId1"/>
+    <sheet name="Low" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,6 +90,2013 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>High!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>High!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>High!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5339-467A-AA3A-7387D438ABA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1891462608"/>
+        <c:axId val="1941909600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1891462608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941909600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1941909600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891462608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Low!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Low!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1BE-4C7C-8F86-7A15F15600B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2024980656"/>
+        <c:axId val="1941910432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2024980656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941910432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1941910432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2024980656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6449ACC-ADF7-42B7-A41E-95E42DE83B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC88D750-B85B-46DE-829C-FB67278FD727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FFEDD-A4B4-43A6-8E48-DE9C41989700}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +2414,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -415,186 +2422,131 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="B10">
-        <v>2.2000000000000002</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>4.9000000000000004</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="B16">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7.5</v>
-      </c>
-      <c r="B17">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8.5</v>
-      </c>
-      <c r="B19">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9.5</v>
-      </c>
-      <c r="B21">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10.5</v>
-      </c>
-      <c r="B23">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
-    <sortCondition ref="A2:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
+    <sortCondition ref="A2:A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A525757E-FC37-4A19-B182-619F5BF27B98}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +2561,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -617,176 +2569,145 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>8.8000000000000007</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="B9">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>13.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>15.1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="B13">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="B15">
-        <v>14.2</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="B17">
-        <v>14.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>11.9</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="B19">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9.5</v>
-      </c>
-      <c r="B21">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10.5</v>
-      </c>
-      <c r="B23">
         <v>4.5999999999999996</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
-    <sortCondition ref="A2:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+    <sortCondition ref="A2:A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ShootLog.xlsx
+++ b/ShootLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theol\Documents\7842F-Local-Vex-Code\7842F-Competition-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89B1714-893C-47A1-B25A-40000F968F27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF9193-987A-4B11-A36C-3C63C7601C93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2E3FA7E8-4F5F-4379-B140-BBAB140CC1EF}"/>
   </bookViews>
@@ -581,16 +581,46 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="6"/>
+            <c:order val="5"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Low!$A$2:$A$19</c:f>
+              <c:f>Low!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -629,31 +659,16 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Low!$B$2:$B$19</c:f>
+              <c:f>Low!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -692,21 +707,6 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,6 +715,340 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C1BE-4C7C-8F86-7A15F15600B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2024980656"/>
+        <c:axId val="1941910432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2024980656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941910432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1941910432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2024980656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Low!$A$15:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Low!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD1E-4A0A-94C7-18B6F0D3D717}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -985,6 +1319,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1502,6 +1876,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2091,6 +2981,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39152E21-E344-4277-AB01-8E98D0F08C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2546,7 +3474,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ShootLog.xlsx
+++ b/ShootLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theol\Documents\7842F-Local-Vex-Code\7842F-Competition-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CF9193-987A-4B11-A36C-3C63C7601C93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CEFE5D-140A-4DB3-AE29-1882BA673D36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2E3FA7E8-4F5F-4379-B140-BBAB140CC1EF}"/>
   </bookViews>
@@ -180,12 +180,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>High!$A$2:$A$16</c:f>
+              <c:f>High!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.5</c:v>
                 </c:pt>
@@ -212,34 +257,16 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>High!$B$2:$B$16</c:f>
+              <c:f>High!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -266,24 +293,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,6 +505,346 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>High!$A$11:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>High!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1394-417A-89D1-37507BAAAA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1891462608"/>
+        <c:axId val="1941909600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1891462608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941909600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1941909600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891462608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -905,7 +1254,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1359,6 +1708,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2392,6 +2781,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2940,6 +3845,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4604F691-3D0D-43C0-A519-56297F444C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3326,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FFEDD-A4B4-43A6-8E48-DE9C41989700}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,7 +4417,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ShootLog.xlsx
+++ b/ShootLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theol\Documents\7842F-Local-Vex-Code\7842F-Competition-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CEFE5D-140A-4DB3-AE29-1882BA673D36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2639D21C-A8D9-42BB-B288-A5FDCF83A961}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2E3FA7E8-4F5F-4379-B140-BBAB140CC1EF}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="1185" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{2E3FA7E8-4F5F-4379-B140-BBAB140CC1EF}"/>
   </bookViews>
   <sheets>
     <sheet name="High" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,7 @@
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
@@ -227,72 +225,156 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>High!$A$2:$A$10</c:f>
+              <c:f>High!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>High!$B$2:$B$10</c:f>
+              <c:f>High!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>4.9000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>5.3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>6.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>7.1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,6 +587,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -514,6 +626,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Low!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Angle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -585,477 +708,132 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>High!$A$11:$A$16</c:f>
+              <c:f>Low!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="17">
                   <c:v>8.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="18">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>High!$B$11:$B$16</c:f>
+              <c:f>Low!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1394-417A-89D1-37507BAAAA5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1891462608"/>
-        <c:axId val="1941909600"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1891462608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1941909600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1941909600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1891462608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Low!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Angle</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="5"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Low!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Low!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>8.8000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>12.6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>13.4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>15.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>13.3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>14.2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>14.4</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,340 +842,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C1BE-4C7C-8F86-7A15F15600B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2024980656"/>
-        <c:axId val="1941910432"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2024980656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1941910432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1941910432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2024980656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Low!$A$15:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Low!$B$15:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FD1E-4A0A-94C7-18B6F0D3D717}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1668,86 +1112,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2265,1038 +1629,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3850,44 +2182,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4604F691-3D0D-43C0-A519-56297F444C44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3924,44 +2218,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39152E21-E344-4277-AB01-8E98D0F08C0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4267,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FFEDD-A4B4-43A6-8E48-DE9C41989700}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A2" sqref="A2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,7 +2541,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4293,119 +2549,183 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>6.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="B9">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>5.2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="B11">
-        <v>6.1</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>3.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="B13">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>3.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="B15">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7.5</v>
+      </c>
+      <c r="B17">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>10.5</v>
       </c>
-      <c r="B16">
-        <v>0.9</v>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
-    <sortCondition ref="A2:A3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
+    <sortCondition ref="A2:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4414,10 +2734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A525757E-FC37-4A19-B182-619F5BF27B98}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4432,7 +2752,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4440,143 +2760,183 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>8.8000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="B5">
-        <v>12.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>13.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>15.1</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="B9">
-        <v>13.3</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="B11">
-        <v>14.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="B13">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>11.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="B15">
-        <v>9.8000000000000007</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>10.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="B17">
-        <v>8.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.5</v>
+      </c>
+      <c r="B21">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>10.5</v>
       </c>
-      <c r="B19">
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
         <v>4.5999999999999996</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
-    <sortCondition ref="A2:A6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
